--- a/res/factures.xlsx
+++ b/res/factures.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\cours20182019\captureexcels2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9C2D17-2D4B-4A7E-A7E5-EF6BC833D22D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA713EA-00E5-4C95-AE8B-A7DC043234C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="8280" xr2:uid="{E5C16B88-2441-4423-AD6E-219B85075764}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E5C16B88-2441-4423-AD6E-219B85075764}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1304,9 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCFBFA0-227E-4FA8-AD3E-2FB3FE5CFDE9}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I280"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
